--- a/Section 13/aula-atingir-meta.xlsx
+++ b/Section 13/aula-atingir-meta.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Google Drive\Curso_Excel\12 Ferramentas de análise\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Cursos\Excel\Section 13\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B74C14D-7F1D-45B7-A5F9-BF2CFBF2E043}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412258ED-844B-4E9E-8507-E30D70C769CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{4430C8C5-1BA6-4289-86B7-BC19EE26AF37}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4430C8C5-1BA6-4289-86B7-BC19EE26AF37}"/>
   </bookViews>
   <sheets>
     <sheet name="Atingir Meta" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -254,7 +265,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -271,7 +282,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -573,35 +584,35 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="22.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="26.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="22.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.109375" style="1"/>
+    <col min="5" max="5" width="26.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="9" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" s="9" customFormat="1" ht="39.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="16" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="16"/>
       <c r="F1" s="10"/>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="11" t="s">
         <v>14</v>
       </c>
@@ -611,12 +622,12 @@
       </c>
       <c r="F6" s="12"/>
     </row>
-    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C7" s="5">
-        <v>184.87046632124353</v>
+        <v>247.04663212435236</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>5</v>
@@ -625,7 +636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
         <v>0</v>
       </c>
@@ -637,10 +648,10 @@
       </c>
       <c r="F8" s="5">
         <f>C7*C8</f>
-        <v>46217.616580310882</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>61761.658031088089</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
@@ -655,7 +666,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E10" s="4" t="s">
         <v>9</v>
       </c>
@@ -664,34 +675,34 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="5">
         <f>3000+(F8*1%)</f>
-        <v>3462.1761658031087</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>3617.6165803108806</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E12" s="4" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="5">
         <f>F8*2.5%</f>
-        <v>1155.4404145077722</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1544.0414507772023</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E13" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="8">
         <f>F8-SUM(F9:F12)</f>
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>30000.000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F14" s="1"/>
     </row>
   </sheetData>
